--- a/data/SampleData.xlsx
+++ b/data/SampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAINAM\Downloads\d360\Upload_To_Youtube\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C90796-46EB-4EEB-A835-954FF7FB0D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A54C2-3D9B-4BAA-8FEF-2A2CA3D4FE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="41">
   <si>
     <t>Region</t>
   </si>
@@ -106,31 +106,43 @@
     <t>ID</t>
   </si>
   <si>
-    <t>194-G-SMLG422-063</t>
-  </si>
-  <si>
-    <t>196-B-B2B-58113</t>
-  </si>
-  <si>
-    <t>196-ID-0020353</t>
-  </si>
-  <si>
-    <t>196-IE-61881</t>
-  </si>
-  <si>
-    <t>50-00-286732406-PEN</t>
-  </si>
-  <si>
-    <t>50-00-LG10282802-R</t>
-  </si>
-  <si>
-    <t>50-00-LG10341903-R</t>
-  </si>
-  <si>
-    <t>50-00-LG10342002-EAR</t>
-  </si>
-  <si>
-    <t>50-00-LG10343217-EAR</t>
+    <t>87-HM-7443209647</t>
+  </si>
+  <si>
+    <t>87-HM-7466929444</t>
+  </si>
+  <si>
+    <t>87-HM-7471662018</t>
+  </si>
+  <si>
+    <t>87-HM-7481065527</t>
+  </si>
+  <si>
+    <t>87-HM-7481120270</t>
+  </si>
+  <si>
+    <t>87-HM-7481642982</t>
+  </si>
+  <si>
+    <t>87-HM-7483499500</t>
+  </si>
+  <si>
+    <t>87-HN-1487266685</t>
+  </si>
+  <si>
+    <t>87-HN-1488360452</t>
+  </si>
+  <si>
+    <t>87-HN-1489650048</t>
+  </si>
+  <si>
+    <t>87-HN-2484659961</t>
+  </si>
+  <si>
+    <t>87-HN-2484825848</t>
+  </si>
+  <si>
+    <t>87-HN-2486538142</t>
   </si>
 </sst>
 </file>
@@ -593,7 +605,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,6 +970,9 @@
       <c r="I11" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -987,6 +1002,9 @@
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -1016,6 +1034,9 @@
       <c r="I13" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -1044,6 +1065,9 @@
       </c>
       <c r="I14" s="8" t="s">
         <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
